--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\PLSQL-2019-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2020-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -53,74 +53,68 @@
     <t>CORONEL CASTILLO ERIC GUSTAVO</t>
   </si>
   <si>
-    <t>[M1-OPLSQ] WORKSHOP:ORACLE PL/SQL</t>
-  </si>
-  <si>
     <t>Do 08:00-14:00</t>
   </si>
   <si>
-    <t>ALZUGARAY JORGES JOSE FELIX</t>
-  </si>
-  <si>
-    <t>OSORIO URRUNAGA JUAN ALAN</t>
-  </si>
-  <si>
-    <t>POZO NOLBERTO WILLIAM</t>
-  </si>
-  <si>
-    <t>SALINAS ENCINAS MILTON CESAR</t>
-  </si>
-  <si>
-    <t>SANCHEZ CUADROS JOSE FRANCISCO</t>
-  </si>
-  <si>
-    <t>SANTIAGO BARRETO NANCY ROSARIO</t>
-  </si>
-  <si>
-    <t>SOTELO DEL VILLAR JIMMY</t>
-  </si>
-  <si>
-    <t>SOTO RIVERA MARYURI MAGALY</t>
-  </si>
-  <si>
-    <t>SOTO SOTO DANTE JESUS</t>
-  </si>
-  <si>
-    <t>SULLCA CCARAMPA BRAYAN RAUL</t>
-  </si>
-  <si>
-    <t>VALLE GARMA SERGIO LUIS</t>
-  </si>
-  <si>
-    <t>08.DIC.2019</t>
-  </si>
-  <si>
-    <t>15.DIC.2019</t>
-  </si>
-  <si>
     <t>Control de Asistencia</t>
   </si>
   <si>
-    <t>22.DIC.2019</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>TAIPE MELISSA</t>
-  </si>
-  <si>
-    <t>29.DIC.2019</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>AGURTO VILLAVICENCIO VICENTE MOISES</t>
+  </si>
+  <si>
+    <t>CORDOVA ANTAURCO DIEGO TOMAS</t>
+  </si>
+  <si>
+    <t>FLORES CASO KELVIN KRISTHOFER</t>
+  </si>
+  <si>
+    <t>MUÑOZ GARCIA CRISTOPHER GREGORI</t>
+  </si>
+  <si>
+    <t>OSORIO BRAVO DIEGO SEBASTIAN FERNANDO</t>
+  </si>
+  <si>
+    <t>PAREDES ROMERO WILFREDO RICHARD</t>
+  </si>
+  <si>
+    <t>RAMIREZ QUISPE RUTH JENIFER</t>
+  </si>
+  <si>
+    <t>SOSA ARANGO GEORBETHY ROSIBEL</t>
+  </si>
+  <si>
+    <t>TRUJILLO CRUZ JOEL ANGEL</t>
+  </si>
+  <si>
+    <t>[S1-OPLSS] ORACLE PL/SQL</t>
+  </si>
+  <si>
+    <t>16.FEB.2020</t>
+  </si>
+  <si>
+    <t>23.FEB.2020</t>
+  </si>
+  <si>
+    <t>01.MAR.2020</t>
+  </si>
+  <si>
+    <t>08.MAR.2020</t>
+  </si>
+  <si>
+    <t>HUAUYA RIOS WILLIAM</t>
+  </si>
+  <si>
+    <t>ROQUE CABELLO JOSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +179,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -240,7 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +294,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -635,23 +643,23 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -659,9 +667,9 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -669,7 +677,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -687,29 +695,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="13">
-        <v>201912</v>
-      </c>
-      <c r="D7" s="14">
-        <v>43807</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>202002</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -723,87 +733,69 @@
         <v>22</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -811,15 +803,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -827,37 +817,27 @@
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -865,95 +845,65 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -963,7 +913,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>14</v>
       </c>
@@ -974,6 +924,9 @@
       <c r="F23" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B10:B20">
+    <sortCondition ref="B9"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:B6"/>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2020-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EGCC\PLSQL-2020-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -286,6 +286,12 @@
     <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -294,12 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -644,44 +644,44 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
@@ -695,11 +695,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="13">
         <v>202002</v>
       </c>
@@ -713,13 +713,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -749,11 +749,13 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -763,11 +765,13 @@
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -777,25 +781,29 @@
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -805,11 +813,13 @@
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -819,11 +829,13 @@
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -833,11 +845,13 @@
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -847,25 +861,29 @@
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>9</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -875,11 +893,13 @@
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -889,11 +909,13 @@
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -903,7 +925,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -913,7 +935,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>14</v>
       </c>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EGCC\PLSQL-2020-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2020-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,14 +179,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -286,12 +278,6 @@
     <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,6 +286,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -643,45 +635,45 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
@@ -695,11 +687,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="13">
         <v>202002</v>
       </c>
@@ -713,13 +705,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -739,7 +731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -755,7 +747,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -771,7 +763,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -787,23 +779,23 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -819,7 +811,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -835,7 +827,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -851,7 +843,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -867,23 +859,23 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -899,7 +891,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -915,7 +907,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -925,7 +917,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -935,7 +927,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>14</v>
       </c>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\PLSQL\PLSQL-2020-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EGCC\PLSQL-2020-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -278,6 +278,12 @@
     <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,12 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -636,44 +636,44 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+    <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
@@ -687,11 +687,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="13">
         <v>202002</v>
       </c>
@@ -705,13 +705,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -744,10 +744,12 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -760,10 +762,12 @@
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -776,26 +780,30 @@
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>4</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -808,10 +816,12 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -824,10 +834,12 @@
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -840,10 +852,12 @@
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -856,26 +870,30 @@
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>9</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -888,10 +906,12 @@
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -904,10 +924,12 @@
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -917,7 +939,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -927,7 +949,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>14</v>
       </c>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>NRO</t>
   </si>
@@ -636,7 +636,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,9 @@
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -765,7 +767,9 @@
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -783,7 +787,9 @@
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
@@ -819,7 +825,9 @@
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -837,7 +845,9 @@
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -873,7 +883,9 @@
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -891,7 +903,9 @@
       <c r="E18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -909,7 +923,9 @@
       <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -927,7 +943,9 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
